--- a/API_1/data/api_case.xlsx
+++ b/API_1/data/api_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12570" windowWidth="23250" xWindow="-105" yWindow="-105"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12570" windowWidth="23250" xWindow="-105" yWindow="-105"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -78,12 +78,14 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
@@ -499,7 +501,7 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -691,7 +693,7 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -702,7 +704,7 @@
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="55.75"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="50.75"/>
     <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="9.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="222.75"/>
+    <col customWidth="1" max="7" min="7" style="2" width="115.75"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="30.625"/>
   </cols>
   <sheetData>
